--- a/data/trans_dic/P31_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P31_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>70,76%</t>
+          <t>70,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>73,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>80,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>92,49%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>95,68%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>93,13%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>94,63%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>90,41%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>91,9%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>81,6%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>84,67%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>86,33%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>85,36%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,02; 89,56</t>
+          <t>77,29; 89,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,46; 93,38</t>
+          <t>82,57; 93,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,02; 78,95</t>
+          <t>61,71; 79,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>94,19; 99,02</t>
+          <t>62,61; 80,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,52; 97,19</t>
+          <t>72,35; 86,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,78; 95,59</t>
+          <t>66,92; 84,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,39; 93,38</t>
+          <t>93,86; 98,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,34; 94,65</t>
+          <t>90,78; 97,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>76,36; 86,09</t>
+          <t>87,75; 95,71</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>90,49; 98,03</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>87,09; 96,79</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>89,82; 97,75</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>86,45; 93,53</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>88,49; 94,82</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>76,83; 86,35</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>79,03; 89,19</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>81,28; 90,41</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>79,68; 89,98</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>87,25%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>84,85%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>92,43%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>96,75%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>97,77%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>97,26%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>93,73%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>97,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>95,05%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>95,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>97,64%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>93,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>93,32%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>91,06%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>90,79%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>90,13%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>95,06%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,14; 94,93</t>
+          <t>85,17; 94,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,9; 93,43</t>
+          <t>83,77; 92,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,49; 90,68</t>
+          <t>78,81; 89,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,39; 98,86</t>
+          <t>80,34; 92,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,98; 99,13</t>
+          <t>76,58; 90,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>94,81; 98,9</t>
+          <t>85,59; 96,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,94; 95,99</t>
+          <t>92,87; 98,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,91; 95,79</t>
+          <t>94,96; 99,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,36; 93,87</t>
+          <t>94,43; 98,78</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>87,63; 98,01</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>91,76; 98,02</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>93,96; 99,32</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>90,33; 95,79</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>90,72; 95,67</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>87,65; 93,66</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>86,1; 93,88</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>86,11; 93,52</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>91,2; 97,3</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>87,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>88,75%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>93,48%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>96,17%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>98,9%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>96,5%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>93,3%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>94,75%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>96,47%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>96,9%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>97,15%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>97,22%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>93,1%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>94,8%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>92,16%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>92,62%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>92,72%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>95,24%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,95; 94,1</t>
+          <t>84,55; 93,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,78; 93,49</t>
+          <t>86,77; 93,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,26; 91,03</t>
+          <t>82,84; 91,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,22; 98,1</t>
+          <t>76,86; 92,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,46; 99,69</t>
+          <t>84,2; 92,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,24; 98,08</t>
+          <t>89,18; 96,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,88; 95,33</t>
+          <t>93,2; 98,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>92,75; 96,43</t>
+          <t>97,29; 99,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,48; 94,0</t>
+          <t>93,89; 98,06</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>94,43; 98,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>94,47; 98,8</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>94,41; 99,07</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>90,43; 95,04</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>92,83; 96,43</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>89,7; 94,1</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>85,9; 95,01</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>90,05; 94,87</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>92,67; 97,23</t>
         </is>
       </c>
     </row>
@@ -962,47 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,13%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>98,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98,49%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>98,36%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>99,27%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>94,83%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>96,19%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>95,58%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>95,76%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>96,11%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>97,07%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,91; 95,12</t>
+          <t>87,52; 94,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,03; 96,41</t>
+          <t>91,02; 96,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,5; 95,39</t>
+          <t>88,02; 95,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,47; 98,34</t>
+          <t>89,13; 95,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,81; 98,83</t>
+          <t>90,21; 96,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,33; 99,47</t>
+          <t>91,27; 97,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,32; 96,12</t>
+          <t>95,32; 99,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,08; 97,36</t>
+          <t>96,15; 99,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,0; 97,12</t>
+          <t>97,13; 99,52</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96,75; 99,42</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>95,9; 99,59</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97,75; 100,0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>92,7; 96,57</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>94,56; 97,46</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>93,5; 97,1</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>93,4; 97,33</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>93,85; 97,73</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>95,2; 98,43</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>97,74%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>97,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>99,26%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>98,85%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>96,29%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>97,7%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>98,04%</t>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>99,11%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>99,58%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>99,47%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>96,39%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>97,62%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>96,72%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>98,37%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>98,62%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,7; 97,38</t>
+          <t>91,34; 97,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,92; 98,9</t>
+          <t>86,6; 98,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,47; 98,72</t>
+          <t>94,84; 98,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92,35; 99,21</t>
+          <t>88,1; 97,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,15; 100,0</t>
+          <t>93,36; 98,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>96,56; 99,67</t>
+          <t>93,94; 99,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>93,55; 97,87</t>
+          <t>93,75; 99,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,12; 98,95</t>
+          <t>97,43; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>96,59; 99,03</t>
+          <t>96,67; 99,66</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>97,08; 100,0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>97,61; 100,0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>97,31; 100,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>94,06; 97,98</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>93,61; 99,05</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>96,52; 99,0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>93,15; 98,31</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>96,54; 99,43</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>96,94; 99,48</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>97,8%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>97,77%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>98,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>99,27%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>99,67%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>98,9%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>99,61%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>99,09%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>99,36%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>98,75%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>99,03%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>99,05%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>99,25%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,97; 99,43</t>
+          <t>94,93; 99,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,1; 100,0</t>
+          <t>97,74; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,43; 99,29</t>
+          <t>93,89; 99,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>99,1; 100</t>
+          <t>94,33; 99,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,56; 100,0</t>
+          <t>94,47; 99,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>98,22; 100,0</t>
+          <t>95,36; 99,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>97,34; 99,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>98,37; 99,84</t>
+          <t>97,12; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97,34; 99,6</t>
+          <t>97,9; 100,0</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>97,9; 99,78</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>98,23; 99,82</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>97,29; 99,57</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>97,19; 99,73</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>97,77; 99,76</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>97,82; 99,77</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>97,37%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>97,72%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>97,62%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>98,24%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>94,66%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>95,59%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>93,06%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>93,63%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>94,11%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>95,44%</t>
         </is>
       </c>
     </row>
@@ -1345,63 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>89,75; 93,21</t>
+          <t>89,74; 93,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,45; 94,4</t>
+          <t>91,4; 94,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,64; 90,61</t>
+          <t>86,22; 90,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>96,27; 98,21</t>
+          <t>86,73; 91,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,2; 98,63</t>
+          <t>88,61; 92,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,35; 98,09</t>
+          <t>90,49; 94,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,45; 95,44</t>
+          <t>96,64; 98,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
+          <t>97,34; 98,72</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>96,46; 98,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>96,56; 98,5</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>96,68; 98,41</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>97,41; 98,9</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>93,72; 95,52</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
           <t>94,66; 96,32</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>91,98; 94,19</t>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>91,89; 94,03</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>92,16; 94,76</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>92,91; 95,18</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>94,42; 96,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>419147</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>454670</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>360512</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>319532</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33780</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31728</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>452402</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>483423</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>473573</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>438896</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>34828</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>35599</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>871549</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>938093</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>834085</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>758428</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>68608</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>67328</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>385324; 445244</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>421937; 476277</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>314806; 405132</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>273617; 352991</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30440; 36603</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27603; 34965</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>436896; 460676</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>462767; 495425</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>449319; 490051</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>415090; 449647</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32570; 36196</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33790; 36776</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>833414; 901663</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>903318; 967906</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>785297; 882601</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>707849; 798830</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>64596; 71849</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>62842; 70965</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>517036</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>499673</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>507110</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>488571</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>41964</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40988</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>492816</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>489044</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>503402</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>443193</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45154</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>44021</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1009852</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>988717</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1010511</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>931763</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>87118</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>85009</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>485743; 537390</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>469143; 520096</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>466875; 532884</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>449873; 517254</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>37871; 44807</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37954; 42901</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>473070; 501738</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>474283; 495340</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>488544; 511032</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>408626; 457031</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>43314; 46269</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42360; 44777</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>975223; 1034234</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>961252; 1013615</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>972695; 1039427</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>883596; 963517</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>83231; 90394</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>81561; 87014</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>596.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>476.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>420.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>604740</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>611305</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>596333</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>575844</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>53435</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55924</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>673330</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>695296</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>680733</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>656650</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>52378</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51516</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1278070</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1306602</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1277065</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1232494</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>105813</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>107442</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>568742; 626767</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>586000; 631930</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>563357; 619113</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>501968; 607308</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>50699; 55592</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53346; 57765</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>652486; 686493</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>683969; 701105</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>662541; 691996</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>639936; 666781</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>50937; 53268</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50026; 52493</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1241335; 1304670</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1279488; 1329146</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1242944; 1303995</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1143152; 1264294</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>102769; 108276</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>104538; 109684</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>627.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>513.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>596607</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>604461</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>590464</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>575221</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>54525</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>52477</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>654740</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>647153</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>648331</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>622198</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51568</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>51149</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1251346</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1251614</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1238795</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1197419</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>106093</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>103627</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>566454; 614546</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>582878; 618275</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>562496; 608911</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>551400; 593152</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>52285; 56144</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50406; 53761</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>640833; 665729</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>635309; 654927</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>638110; 653873</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>611246; 628094</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>50279; 52211</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50364; 51523</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1223212; 1274304</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1230424; 1268039</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1211752; 1258500</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1167954; 1217062</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>103601; 107885</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>101622; 105076</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>493.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>507.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>457361</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>473822</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>479345</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>447517</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>43171</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42610</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>485366</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>473711</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>500800</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>484827</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>48565</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>45220</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>942728</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>947534</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>980145</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>932343</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>91737</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>87829</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>439310; 468921</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>427305; 487797</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>467987; 487291</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>418308; 462642</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>41533; 43973</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>40952; 43338</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>466018; 494781</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>464959; 477230</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>489767; 504929</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>474859; 489156</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>47603; 48771</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>44237; 45462</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>919969; 958329</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>908647; 961413</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>965308; 990150</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>897947; 947654</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>90028; 92725</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>86327; 88594</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>530151</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>513464</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>519763</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>530426</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>45793</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>42060</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>710900</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>671709</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>689981</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>692271</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>63722</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>60800</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1241051</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1185173</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1209744</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1222697</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>109515</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>102860</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>514149; 538697</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>503993; 515633</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>499847; 529223</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>511585; 539219</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>44246; 46577</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>40854; 42606</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>657613; 677147</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>678119; 692661</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1226136; 1249705</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1171666; 1190574</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1191890; 1219749</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1199920; 1231339</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>108096; 110299</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>101387; 103404</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1040.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1243.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1206.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>901.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>832.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>823.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1295.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1575.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1617.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1066.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1057.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>2335.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>2818.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2823.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>2081.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1898.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1880.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3125042</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3157395</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3053526</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2937111</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>272666</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>265789</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3469553</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3460336</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3496818</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3338033</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>296216</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>288305</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>6594596</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>6617732</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>6550344</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>6275144</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>568882</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>554094</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3061441; 3182939</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3103627; 3204536</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2972270; 3116105</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2849986; 3010716</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>266742; 278350</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>259780; 270594</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3435920; 3493810</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3433596; 3482190</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3464146; 3520518</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3298476; 3364470</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>293366; 298628</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>285864; 290252</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>6529167; 6654564</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>6553727; 6668485</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>6467858; 6618471</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>6176188; 6350529</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>561615; 575323</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>548161; 559432</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
